--- a/data/trans_orig/P36BPD07_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_R-Provincia-trans_orig.xlsx
@@ -736,67 +736,67 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>246603</v>
+        <v>47158</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>232417</v>
+        <v>34799</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>258962</v>
+        <v>61344</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8394695688590652</v>
+        <v>0.1605304311409348</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7911762986602459</v>
+        <v>0.1184587896655663</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8815412103344337</v>
+        <v>0.2088237013397542</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>249059</v>
+        <v>39644</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>237356</v>
+        <v>29299</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>259404</v>
+        <v>51347</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8626831211977712</v>
+        <v>0.1373168788022287</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8221452757058675</v>
+        <v>0.1014838739335189</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8985161260664809</v>
+        <v>0.1778547242941325</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>495663</v>
+        <v>86801</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>476285</v>
+        <v>68688</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>513776</v>
+        <v>106179</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8509755541038273</v>
+        <v>0.1490244458961727</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8177078019551473</v>
+        <v>0.1179259444387368</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8820740555612633</v>
+        <v>0.1822921980448527</v>
       </c>
     </row>
     <row r="5">
@@ -807,67 +807,67 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>47158</v>
+        <v>246603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34799</v>
+        <v>232417</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61344</v>
+        <v>258962</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1605304311409348</v>
+        <v>0.8394695688590652</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1184587896655663</v>
+        <v>0.7911762986602459</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2088237013397542</v>
+        <v>0.8815412103344337</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>39644</v>
+        <v>249059</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29299</v>
+        <v>237356</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51347</v>
+        <v>259404</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1373168788022287</v>
+        <v>0.8626831211977712</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1014838739335189</v>
+        <v>0.8221452757058675</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1778547242941325</v>
+        <v>0.8985161260664809</v>
       </c>
       <c r="Q5" s="5" t="n">
-        <v>80</v>
+        <v>463</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>86801</v>
+        <v>495663</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>68688</v>
+        <v>476285</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>106179</v>
+        <v>513776</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1490244458961727</v>
+        <v>0.8509755541038273</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1179259444387368</v>
+        <v>0.8177078019551473</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1822921980448527</v>
+        <v>0.8820740555612633</v>
       </c>
     </row>
     <row r="6">
@@ -953,67 +953,67 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>421399</v>
+        <v>81176</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>402866</v>
+        <v>66399</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>436176</v>
+        <v>99709</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.838480440913126</v>
+        <v>0.161519559086874</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8016041716734771</v>
+        <v>0.1321183405726789</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8678816594273211</v>
+        <v>0.1983958283265229</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>423</v>
+        <v>59</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>459163</v>
+        <v>61405</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>442262</v>
+        <v>48309</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>472259</v>
+        <v>78306</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.882042975128809</v>
+        <v>0.1179570248711909</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8495755248148424</v>
+        <v>0.0928008737885241</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9071991262114758</v>
+        <v>0.1504244751851574</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>822</v>
+        <v>135</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>880564</v>
+        <v>142580</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>857390</v>
+        <v>121659</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>901485</v>
+        <v>165754</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8606447501867635</v>
+        <v>0.1393552498132365</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8379957700997985</v>
+        <v>0.1189065347222049</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.881093465277795</v>
+        <v>0.1620042299002014</v>
       </c>
     </row>
     <row r="8">
@@ -1024,67 +1024,67 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>76</v>
+        <v>399</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>81176</v>
+        <v>421399</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>66399</v>
+        <v>402866</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>99709</v>
+        <v>436176</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.161519559086874</v>
+        <v>0.838480440913126</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1321183405726789</v>
+        <v>0.8016041716734771</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1983958283265229</v>
+        <v>0.8678816594273211</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>59</v>
+        <v>423</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>61405</v>
+        <v>459163</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48309</v>
+        <v>442262</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>78306</v>
+        <v>472259</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1179570248711909</v>
+        <v>0.882042975128809</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0928008737885241</v>
+        <v>0.8495755248148424</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1504244751851574</v>
+        <v>0.9071991262114758</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>135</v>
+        <v>822</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>142580</v>
+        <v>880564</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>121659</v>
+        <v>857390</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>165754</v>
+        <v>901485</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1393552498132365</v>
+        <v>0.8606447501867635</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1189065347222049</v>
+        <v>0.8379957700997985</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1620042299002014</v>
+        <v>0.881093465277795</v>
       </c>
     </row>
     <row r="9">
@@ -1170,67 +1170,67 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>300757</v>
+        <v>13198</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>292525</v>
+        <v>7427</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>306528</v>
+        <v>21430</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9579628493317854</v>
+        <v>0.04203715066821461</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9317429256915447</v>
+        <v>0.02365661706835542</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9763433829316446</v>
+        <v>0.06825707430845539</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>326</v>
+        <v>6</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>330506</v>
+        <v>5803</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>323917</v>
+        <v>1993</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>334316</v>
+        <v>12392</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9827447452836526</v>
+        <v>0.01725525471634732</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9631526717643591</v>
+        <v>0.005925074507870304</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9940749254921297</v>
+        <v>0.03684732823564084</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>642</v>
+        <v>20</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>631263</v>
+        <v>19001</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>621713</v>
+        <v>12344</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>637920</v>
+        <v>28551</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.970779749600766</v>
+        <v>0.02922025039923405</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9560936843075487</v>
+        <v>0.01898230203823215</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9810176979617679</v>
+        <v>0.04390631569245141</v>
       </c>
     </row>
     <row r="11">
@@ -1241,67 +1241,67 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>14</v>
+        <v>316</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>13198</v>
+        <v>300757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7427</v>
+        <v>292525</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21430</v>
+        <v>306528</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.04203715066821461</v>
+        <v>0.9579628493317854</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02365661706835542</v>
+        <v>0.9317429256915447</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06825707430845539</v>
+        <v>0.9763433829316446</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6</v>
+        <v>326</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5803</v>
+        <v>330506</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1993</v>
+        <v>323917</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12392</v>
+        <v>334316</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.01725525471634732</v>
+        <v>0.9827447452836526</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005925074507870304</v>
+        <v>0.9631526717643591</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03684732823564084</v>
+        <v>0.9940749254921297</v>
       </c>
       <c r="Q11" s="5" t="n">
-        <v>20</v>
+        <v>642</v>
       </c>
       <c r="R11" s="5" t="n">
-        <v>19001</v>
+        <v>631263</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12344</v>
+        <v>621713</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28551</v>
+        <v>637920</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.02922025039923405</v>
+        <v>0.970779749600766</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01898230203823215</v>
+        <v>0.9560936843075487</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04390631569245141</v>
+        <v>0.9810176979617679</v>
       </c>
     </row>
     <row r="12">
@@ -1387,67 +1387,67 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>291468</v>
+        <v>78496</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>275038</v>
+        <v>63275</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>306689</v>
+        <v>94926</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.787826993349507</v>
+        <v>0.212173006650493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7434182991843619</v>
+        <v>0.1710300046318554</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8289699953681445</v>
+        <v>0.2565817008156382</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>296</v>
+        <v>60</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>322449</v>
+        <v>61492</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>307430</v>
+        <v>48350</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>335591</v>
+        <v>76511</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8398403997153137</v>
+        <v>0.1601596002846863</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8007216580561409</v>
+        <v>0.1259312713488877</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8740687286511124</v>
+        <v>0.199278341943859</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>574</v>
+        <v>136</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>613917</v>
+        <v>139988</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>590246</v>
+        <v>121155</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>632750</v>
+        <v>163659</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.814315858840893</v>
+        <v>0.1856841411591071</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7829182578746563</v>
+        <v>0.1607036552702829</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.839296344729717</v>
+        <v>0.2170817421253437</v>
       </c>
     </row>
     <row r="14">
@@ -1458,67 +1458,67 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>78496</v>
+        <v>291468</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63275</v>
+        <v>275038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>94926</v>
+        <v>306689</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.212173006650493</v>
+        <v>0.787826993349507</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1710300046318554</v>
+        <v>0.7434182991843619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2565817008156382</v>
+        <v>0.8289699953681445</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>60</v>
+        <v>296</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>61492</v>
+        <v>322449</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48350</v>
+        <v>307430</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76511</v>
+        <v>335591</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1601596002846863</v>
+        <v>0.8398403997153137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1259312713488877</v>
+        <v>0.8007216580561409</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.199278341943859</v>
+        <v>0.8740687286511124</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>136</v>
+        <v>574</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>139988</v>
+        <v>613917</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>121155</v>
+        <v>590246</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>163659</v>
+        <v>632750</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1856841411591071</v>
+        <v>0.814315858840893</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1607036552702829</v>
+        <v>0.7829182578746563</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2170817421253437</v>
+        <v>0.839296344729717</v>
       </c>
     </row>
     <row r="15">
@@ -1604,67 +1604,67 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>171629</v>
+        <v>39592</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>158452</v>
+        <v>29057</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>182164</v>
+        <v>52769</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8125547930214667</v>
+        <v>0.1874452069785333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7501728184328849</v>
+        <v>0.137567960147243</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.862432039852757</v>
+        <v>0.2498271815671151</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>188371</v>
+        <v>30216</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>176965</v>
+        <v>21065</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>197522</v>
+        <v>41622</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8617687284060181</v>
+        <v>0.1382312715939819</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8095867519345271</v>
+        <v>0.09637001090674124</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9036299890932588</v>
+        <v>0.1904132480654729</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>366</v>
+        <v>69</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>360000</v>
+        <v>69808</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>344233</v>
+        <v>55667</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>374141</v>
+        <v>85575</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8375834721932911</v>
+        <v>0.1624165278067089</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8008997411212347</v>
+        <v>0.1295168296228351</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8704831703771647</v>
+        <v>0.1991002588787651</v>
       </c>
     </row>
     <row r="17">
@@ -1675,67 +1675,67 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>39592</v>
+        <v>171629</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29057</v>
+        <v>158452</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52769</v>
+        <v>182164</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1874452069785333</v>
+        <v>0.8125547930214667</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.137567960147243</v>
+        <v>0.7501728184328849</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2498271815671151</v>
+        <v>0.862432039852757</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>30216</v>
+        <v>188371</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21065</v>
+        <v>176965</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41622</v>
+        <v>197522</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1382312715939819</v>
+        <v>0.8617687284060181</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09637001090674124</v>
+        <v>0.8095867519345271</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1904132480654729</v>
+        <v>0.9036299890932588</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>69</v>
+        <v>366</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>69808</v>
+        <v>360000</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>55667</v>
+        <v>344233</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>85575</v>
+        <v>374141</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1624165278067089</v>
+        <v>0.8375834721932911</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1295168296228351</v>
+        <v>0.8008997411212347</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1991002588787651</v>
+        <v>0.8704831703771647</v>
       </c>
     </row>
     <row r="18">
@@ -1821,67 +1821,67 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>228274</v>
+        <v>34849</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>216089</v>
+        <v>24645</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>238478</v>
+        <v>47034</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8675569923728664</v>
+        <v>0.1324430076271336</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8212489497118534</v>
+        <v>0.09366516047184081</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9063348395281592</v>
+        <v>0.1787510502881468</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>249105</v>
+        <v>24010</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>238803</v>
+        <v>16307</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>256808</v>
+        <v>34312</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9120875236244482</v>
+        <v>0.08791247637555179</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8743670818207041</v>
+        <v>0.05970561860314862</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9402943813968513</v>
+        <v>0.1256329181792958</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>462</v>
+        <v>60</v>
       </c>
       <c r="R19" s="5" t="n">
-        <v>477379</v>
+        <v>58859</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>462563</v>
+        <v>44816</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>491422</v>
+        <v>73675</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.890237138261197</v>
+        <v>0.109762861738803</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8626083293044865</v>
+        <v>0.08357533755835692</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9164246624416432</v>
+        <v>0.1373916706955138</v>
       </c>
     </row>
     <row r="20">
@@ -1892,67 +1892,67 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>34849</v>
+        <v>228274</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24645</v>
+        <v>216089</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>47034</v>
+        <v>238478</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1324430076271336</v>
+        <v>0.8675569923728664</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09366516047184081</v>
+        <v>0.8212489497118534</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1787510502881468</v>
+        <v>0.9063348395281592</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>24010</v>
+        <v>249105</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16307</v>
+        <v>238803</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34312</v>
+        <v>256808</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.08791247637555179</v>
+        <v>0.9120875236244482</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05970561860314862</v>
+        <v>0.8743670818207041</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1256329181792958</v>
+        <v>0.9402943813968513</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>60</v>
+        <v>462</v>
       </c>
       <c r="R20" s="5" t="n">
-        <v>58859</v>
+        <v>477379</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>44816</v>
+        <v>462563</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>73675</v>
+        <v>491422</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.109762861738803</v>
+        <v>0.890237138261197</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08357533755835692</v>
+        <v>0.8626083293044865</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1373916706955138</v>
+        <v>0.9164246624416432</v>
       </c>
     </row>
     <row r="21">
@@ -2038,67 +2038,67 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>484</v>
+        <v>84</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>549436</v>
+        <v>93399</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>529572</v>
+        <v>76876</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>565959</v>
+        <v>113263</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8547072821362717</v>
+        <v>0.1452927178637283</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8238077989190159</v>
+        <v>0.1195884948896429</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8804115051103572</v>
+        <v>0.1761922010809841</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>512</v>
+        <v>121</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>553347</v>
+        <v>122506</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>530129</v>
+        <v>105511</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>570342</v>
+        <v>145724</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8187393713675947</v>
+        <v>0.1812606286324054</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7843853959052872</v>
+        <v>0.1561151267913923</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8438848732086078</v>
+        <v>0.2156146040947134</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>996</v>
+        <v>205</v>
       </c>
       <c r="R22" s="5" t="n">
-        <v>1102783</v>
+        <v>215905</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1077298</v>
+        <v>186254</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1132434</v>
+        <v>241390</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.836273030359431</v>
+        <v>0.163726969640569</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8169471122195028</v>
+        <v>0.1412420963427919</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8587579036572081</v>
+        <v>0.1830528877804972</v>
       </c>
     </row>
     <row r="23">
@@ -2109,67 +2109,67 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>84</v>
+        <v>484</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>93399</v>
+        <v>549436</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>76876</v>
+        <v>529572</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>113263</v>
+        <v>565959</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1452927178637283</v>
+        <v>0.8547072821362717</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1195884948896429</v>
+        <v>0.8238077989190159</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1761922010809841</v>
+        <v>0.8804115051103572</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>121</v>
+        <v>512</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>122506</v>
+        <v>553347</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>105511</v>
+        <v>530129</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>145724</v>
+        <v>570342</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1812606286324054</v>
+        <v>0.8187393713675947</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1561151267913923</v>
+        <v>0.7843853959052872</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2156146040947134</v>
+        <v>0.8438848732086078</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>205</v>
+        <v>996</v>
       </c>
       <c r="R23" s="5" t="n">
-        <v>215905</v>
+        <v>1102783</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>186254</v>
+        <v>1077298</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>241390</v>
+        <v>1132434</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.163726969640569</v>
+        <v>0.836273030359431</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1412420963427919</v>
+        <v>0.8169471122195028</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1830528877804972</v>
+        <v>0.8587579036572081</v>
       </c>
     </row>
     <row r="24">
@@ -2255,67 +2255,67 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>612</v>
+        <v>133</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>635239</v>
+        <v>138432</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>610591</v>
+        <v>118212</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>655459</v>
+        <v>163080</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8210714553583246</v>
+        <v>0.1789285446416754</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7892131194443311</v>
+        <v>0.1527932670101311</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8472067329898689</v>
+        <v>0.2107868805556688</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>635</v>
+        <v>119</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>702876</v>
+        <v>122315</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>680453</v>
+        <v>101846</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>723345</v>
+        <v>144738</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.8517736255203376</v>
+        <v>0.1482263744796623</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8246006508087139</v>
+        <v>0.1234212489897828</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8765787510102172</v>
+        <v>0.1753993491912861</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>1247</v>
+        <v>252</v>
       </c>
       <c r="R25" s="5" t="n">
-        <v>1338115</v>
+        <v>260747</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1307242</v>
+        <v>232742</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1366120</v>
+        <v>291620</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.8369171926928655</v>
+        <v>0.1630828073071345</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8176080325506887</v>
+        <v>0.1455675825665619</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8544324174334373</v>
+        <v>0.1823919674493112</v>
       </c>
     </row>
     <row r="26">
@@ -2326,67 +2326,67 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>133</v>
+        <v>612</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>138432</v>
+        <v>635239</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>118212</v>
+        <v>610591</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>163080</v>
+        <v>655459</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1789285446416754</v>
+        <v>0.8210714553583246</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1527932670101311</v>
+        <v>0.7892131194443311</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2107868805556688</v>
+        <v>0.8472067329898689</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>119</v>
+        <v>635</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>122315</v>
+        <v>702876</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101846</v>
+        <v>680453</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>144738</v>
+        <v>723345</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1482263744796623</v>
+        <v>0.8517736255203376</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1234212489897828</v>
+        <v>0.8246006508087139</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1753993491912861</v>
+        <v>0.8765787510102172</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>252</v>
+        <v>1247</v>
       </c>
       <c r="R26" s="5" t="n">
-        <v>260747</v>
+        <v>1338115</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>232742</v>
+        <v>1307242</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>291620</v>
+        <v>1366120</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1630828073071345</v>
+        <v>0.8369171926928655</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1455675825665619</v>
+        <v>0.8176080325506887</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1823919674493112</v>
+        <v>0.8544324174334373</v>
       </c>
     </row>
     <row r="27">
@@ -2472,67 +2472,67 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>2712</v>
+        <v>497</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>2844806</v>
+        <v>526300</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2798135</v>
+        <v>486108</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2884998</v>
+        <v>572971</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.8438791997723469</v>
+        <v>0.1561208002276531</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8300347387695119</v>
+        <v>0.1441984319328135</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8558015680671867</v>
+        <v>0.1699652612304881</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>2860</v>
+        <v>460</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3054877</v>
+        <v>467390</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3010236</v>
+        <v>429208</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3093059</v>
+        <v>512031</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.8673042737394177</v>
+        <v>0.1326957262605824</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8546303683740382</v>
+        <v>0.1218555774801523</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8781444225198477</v>
+        <v>0.1453696316259617</v>
       </c>
       <c r="Q28" s="5" t="n">
-        <v>5572</v>
+        <v>957</v>
       </c>
       <c r="R28" s="5" t="n">
-        <v>5899683</v>
+        <v>993690</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5837310</v>
+        <v>932520</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5960853</v>
+        <v>1056063</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.8558485756066168</v>
+        <v>0.1441514243933832</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8468002539047055</v>
+        <v>0.135277739442386</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.864722260557614</v>
+        <v>0.1531997460952944</v>
       </c>
     </row>
     <row r="29">
@@ -2543,67 +2543,67 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>497</v>
+        <v>2712</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>526300</v>
+        <v>2844806</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>486108</v>
+        <v>2798135</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>572971</v>
+        <v>2884998</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1561208002276531</v>
+        <v>0.8438791997723469</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1441984319328135</v>
+        <v>0.8300347387695119</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1699652612304881</v>
+        <v>0.8558015680671867</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>460</v>
+        <v>2860</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>467390</v>
+        <v>3054877</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>429208</v>
+        <v>3010236</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>512031</v>
+        <v>3093059</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1326957262605824</v>
+        <v>0.8673042737394177</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1218555774801523</v>
+        <v>0.8546303683740382</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1453696316259617</v>
+        <v>0.8781444225198477</v>
       </c>
       <c r="Q29" s="5" t="n">
-        <v>957</v>
+        <v>5572</v>
       </c>
       <c r="R29" s="5" t="n">
-        <v>993690</v>
+        <v>5899683</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>932520</v>
+        <v>5837310</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1056063</v>
+        <v>5960853</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1441514243933832</v>
+        <v>0.8558485756066168</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.135277739442386</v>
+        <v>0.8468002539047055</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1531997460952944</v>
+        <v>0.864722260557614</v>
       </c>
     </row>
     <row r="30">
@@ -2933,67 +2933,67 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>282</v>
+        <v>49</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>264352</v>
+        <v>54493</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>246973</v>
+        <v>40664</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>278181</v>
+        <v>71872</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8290933495830164</v>
+        <v>0.1709066504169837</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7745876452734481</v>
+        <v>0.1275345930791149</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8724654069208851</v>
+        <v>0.2254123547265519</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>482</v>
+        <v>56</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>271314</v>
+        <v>44747</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>256530</v>
+        <v>33706</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>282355</v>
+        <v>59531</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8584214168302904</v>
+        <v>0.1415785831697095</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.811647905262767</v>
+        <v>0.1066439116363026</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8933560883636974</v>
+        <v>0.1883520947372331</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>764</v>
+        <v>105</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>535666</v>
+        <v>99240</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>515011</v>
+        <v>80239</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>554667</v>
+        <v>119895</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8436930681239582</v>
+        <v>0.156306931876042</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8111611254108086</v>
+        <v>0.1263790030045674</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8736209969954327</v>
+        <v>0.1888388745891913</v>
       </c>
     </row>
     <row r="5">
@@ -3004,67 +3004,67 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>54493</v>
+        <v>264352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40664</v>
+        <v>246973</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>71872</v>
+        <v>278181</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1709066504169837</v>
+        <v>0.8290933495830164</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1275345930791149</v>
+        <v>0.7745876452734481</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2254123547265519</v>
+        <v>0.8724654069208851</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>56</v>
+        <v>482</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>44747</v>
+        <v>271314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>33706</v>
+        <v>256530</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59531</v>
+        <v>282355</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1415785831697095</v>
+        <v>0.8584214168302904</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1066439116363026</v>
+        <v>0.811647905262767</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1883520947372331</v>
+        <v>0.8933560883636974</v>
       </c>
       <c r="Q5" s="5" t="n">
-        <v>105</v>
+        <v>764</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>99240</v>
+        <v>535666</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80239</v>
+        <v>515011</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>119895</v>
+        <v>554667</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.156306931876042</v>
+        <v>0.8436930681239582</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1263790030045674</v>
+        <v>0.8111611254108086</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1888388745891913</v>
+        <v>0.8736209969954327</v>
       </c>
     </row>
     <row r="6">
@@ -3150,67 +3150,67 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>311</v>
+        <v>71</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>424194</v>
+        <v>106453</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>396670</v>
+        <v>85018</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>445629</v>
+        <v>133977</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7993895096458267</v>
+        <v>0.2006104903541734</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7475212242402717</v>
+        <v>0.1602153772732618</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8397846227267384</v>
+        <v>0.2524787757597275</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>588</v>
+        <v>127</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>443265</v>
+        <v>101690</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>425904</v>
+        <v>84962</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>459993</v>
+        <v>119051</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8133978298015275</v>
+        <v>0.1866021701984724</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7815388778552137</v>
+        <v>0.1559061561024023</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8440938438975978</v>
+        <v>0.218461122144786</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>899</v>
+        <v>198</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>867459</v>
+        <v>208143</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>834012</v>
+        <v>180989</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>894613</v>
+        <v>241590</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8064868400739442</v>
+        <v>0.1935131599260557</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7753911269822974</v>
+        <v>0.1682677443451743</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8317322556548256</v>
+        <v>0.2246088730177027</v>
       </c>
     </row>
     <row r="8">
@@ -3221,67 +3221,67 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>71</v>
+        <v>311</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>106453</v>
+        <v>424194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>85018</v>
+        <v>396670</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>133977</v>
+        <v>445629</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2006104903541734</v>
+        <v>0.7993895096458267</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1602153772732618</v>
+        <v>0.7475212242402717</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2524787757597275</v>
+        <v>0.8397846227267384</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>127</v>
+        <v>588</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>101690</v>
+        <v>443265</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>84962</v>
+        <v>425904</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>119051</v>
+        <v>459993</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1866021701984724</v>
+        <v>0.8133978298015275</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1559061561024023</v>
+        <v>0.7815388778552137</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.218461122144786</v>
+        <v>0.8440938438975978</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>198</v>
+        <v>899</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>208143</v>
+        <v>867459</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>180989</v>
+        <v>834012</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>241590</v>
+        <v>894613</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1935131599260557</v>
+        <v>0.8064868400739442</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1682677443451743</v>
+        <v>0.7753911269822974</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2246088730177027</v>
+        <v>0.8317322556548256</v>
       </c>
     </row>
     <row r="9">
@@ -3367,67 +3367,67 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>296</v>
+        <v>63</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>253037</v>
+        <v>62092</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>237342</v>
+        <v>49472</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>265657</v>
+        <v>77787</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8029619346844096</v>
+        <v>0.1970380653155904</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7531583783862664</v>
+        <v>0.1569891805490465</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8430108194509536</v>
+        <v>0.2468416216137335</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>474</v>
+        <v>61</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>313927</v>
+        <v>41772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>303619</v>
+        <v>31642</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>324057</v>
+        <v>52080</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8825625065372255</v>
+        <v>0.1174374934627747</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.85358503288068</v>
+        <v>0.08895768285753812</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9110423171424618</v>
+        <v>0.1464149671193202</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>770</v>
+        <v>124</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>566962</v>
+        <v>103865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>546054</v>
+        <v>87585</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>583242</v>
+        <v>124773</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8451692482997882</v>
+        <v>0.1548307517002118</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.814001638342758</v>
+        <v>0.1305629049261417</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8694370950738579</v>
+        <v>0.1859983616572421</v>
       </c>
     </row>
     <row r="11">
@@ -3438,67 +3438,67 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>63</v>
+        <v>296</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>62092</v>
+        <v>253037</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>49472</v>
+        <v>237342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>77787</v>
+        <v>265657</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1970380653155904</v>
+        <v>0.8029619346844096</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1569891805490465</v>
+        <v>0.7531583783862664</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2468416216137335</v>
+        <v>0.8430108194509536</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>61</v>
+        <v>474</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>41772</v>
+        <v>313927</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31642</v>
+        <v>303619</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52080</v>
+        <v>324057</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1174374934627747</v>
+        <v>0.8825625065372255</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08895768285753812</v>
+        <v>0.85358503288068</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1464149671193202</v>
+        <v>0.9110423171424618</v>
       </c>
       <c r="Q11" s="5" t="n">
-        <v>124</v>
+        <v>770</v>
       </c>
       <c r="R11" s="5" t="n">
-        <v>103865</v>
+        <v>566962</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>87585</v>
+        <v>546054</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>124773</v>
+        <v>583242</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1548307517002118</v>
+        <v>0.8451692482997882</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1305629049261417</v>
+        <v>0.814001638342758</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1859983616572421</v>
+        <v>0.8694370950738579</v>
       </c>
     </row>
     <row r="12">
@@ -3584,67 +3584,67 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>309324</v>
+        <v>63821</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>282765</v>
+        <v>46464</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>326681</v>
+        <v>90380</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8289656373048281</v>
+        <v>0.1710343626951719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7577886794479127</v>
+        <v>0.1245203335480586</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8754796664519414</v>
+        <v>0.2422113205520873</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>533</v>
+        <v>64</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>356542</v>
+        <v>64315</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>338501</v>
+        <v>50480</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>370377</v>
+        <v>82356</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8471807824450327</v>
+        <v>0.1528192175549671</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8043131427197062</v>
+        <v>0.1199461384351705</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8800538615648293</v>
+        <v>0.1956868572802938</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>783</v>
+        <v>106</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>665866</v>
+        <v>128136</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>634938</v>
+        <v>106041</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>687961</v>
+        <v>159064</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.838620480681697</v>
+        <v>0.1613795193183027</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7996677306088502</v>
+        <v>0.1335522771649526</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8664477228350478</v>
+        <v>0.2003322693911497</v>
       </c>
     </row>
     <row r="14">
@@ -3655,67 +3655,67 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>63821</v>
+        <v>309324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46464</v>
+        <v>282765</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>90380</v>
+        <v>326681</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1710343626951719</v>
+        <v>0.8289656373048281</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1245203335480586</v>
+        <v>0.7577886794479127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2422113205520873</v>
+        <v>0.8754796664519414</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>64</v>
+        <v>533</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>64315</v>
+        <v>356542</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50480</v>
+        <v>338501</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82356</v>
+        <v>370377</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1528192175549671</v>
+        <v>0.8471807824450327</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1199461384351705</v>
+        <v>0.8043131427197062</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1956868572802938</v>
+        <v>0.8800538615648293</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>106</v>
+        <v>783</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>128136</v>
+        <v>665866</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>106041</v>
+        <v>634938</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>159064</v>
+        <v>687961</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1613795193183027</v>
+        <v>0.838620480681697</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1335522771649526</v>
+        <v>0.7996677306088502</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2003322693911497</v>
+        <v>0.8664477228350478</v>
       </c>
     </row>
     <row r="15">
@@ -3801,67 +3801,67 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>157058</v>
+        <v>48607</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>145166</v>
+        <v>38146</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>167519</v>
+        <v>60499</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7636584670177009</v>
+        <v>0.2363415329822989</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7058364558161567</v>
+        <v>0.1854783685649524</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8145216314350475</v>
+        <v>0.2941635441838432</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>433</v>
+        <v>58</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>197740</v>
+        <v>29083</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>188623</v>
+        <v>22299</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>204524</v>
+        <v>38200</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8717825912046592</v>
+        <v>0.1282174087953409</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8315882278289695</v>
+        <v>0.0983093342469782</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9016906657530217</v>
+        <v>0.1684117721710305</v>
       </c>
       <c r="Q16" s="5" t="n">
-        <v>652</v>
+        <v>118</v>
       </c>
       <c r="R16" s="5" t="n">
-        <v>354798</v>
+        <v>77690</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>340185</v>
+        <v>65561</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>366927</v>
+        <v>92303</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8203654062276808</v>
+        <v>0.1796345937723191</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7865765230604634</v>
+        <v>0.1515901233740616</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8484098766259383</v>
+        <v>0.2134234769395373</v>
       </c>
     </row>
     <row r="17">
@@ -3872,67 +3872,67 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>48607</v>
+        <v>157058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>38146</v>
+        <v>145166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60499</v>
+        <v>167519</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2363415329822989</v>
+        <v>0.7636584670177009</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1854783685649524</v>
+        <v>0.7058364558161567</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2941635441838432</v>
+        <v>0.8145216314350475</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>58</v>
+        <v>433</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>29083</v>
+        <v>197740</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22299</v>
+        <v>188623</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38200</v>
+        <v>204524</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1282174087953409</v>
+        <v>0.8717825912046592</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0983093342469782</v>
+        <v>0.8315882278289695</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1684117721710305</v>
+        <v>0.9016906657530217</v>
       </c>
       <c r="Q17" s="5" t="n">
-        <v>118</v>
+        <v>652</v>
       </c>
       <c r="R17" s="5" t="n">
-        <v>77690</v>
+        <v>354798</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>65561</v>
+        <v>340185</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>92303</v>
+        <v>366927</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1796345937723191</v>
+        <v>0.8203654062276808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1515901233740616</v>
+        <v>0.7865765230604634</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2134234769395373</v>
+        <v>0.8484098766259383</v>
       </c>
     </row>
     <row r="18">
@@ -4018,67 +4018,67 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>324</v>
+        <v>47</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>232116</v>
+        <v>38591</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>220097</v>
+        <v>28895</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>241812</v>
+        <v>50610</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8574445546887415</v>
+        <v>0.1425554453112586</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.813046705651593</v>
+        <v>0.1067374263396174</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8932625736603829</v>
+        <v>0.1869532943484073</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>430</v>
+        <v>30</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>244667</v>
+        <v>19083</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>237689</v>
+        <v>12951</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>250799</v>
+        <v>26061</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9276461408209278</v>
+        <v>0.07235385917907236</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9011888909755676</v>
+        <v>0.04910173602078613</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.950898263979214</v>
+        <v>0.09881110902443239</v>
       </c>
       <c r="Q19" s="5" t="n">
-        <v>754</v>
+        <v>77</v>
       </c>
       <c r="R19" s="5" t="n">
-        <v>476783</v>
+        <v>57674</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>462266</v>
+        <v>46299</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>488158</v>
+        <v>72191</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8920884632544399</v>
+        <v>0.1079115367455602</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8649255439219981</v>
+        <v>0.0866283079857896</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9133716920142103</v>
+        <v>0.1350744560780019</v>
       </c>
     </row>
     <row r="20">
@@ -4089,67 +4089,67 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>38591</v>
+        <v>232116</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28895</v>
+        <v>220097</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50610</v>
+        <v>241812</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1425554453112586</v>
+        <v>0.8574445546887415</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1067374263396174</v>
+        <v>0.813046705651593</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1869532943484073</v>
+        <v>0.8932625736603829</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>30</v>
+        <v>430</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>19083</v>
+        <v>244667</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12951</v>
+        <v>237689</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26061</v>
+        <v>250799</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.07235385917907236</v>
+        <v>0.9276461408209278</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04910173602078613</v>
+        <v>0.9011888909755676</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09881110902443239</v>
+        <v>0.950898263979214</v>
       </c>
       <c r="Q20" s="5" t="n">
-        <v>77</v>
+        <v>754</v>
       </c>
       <c r="R20" s="5" t="n">
-        <v>57674</v>
+        <v>476783</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>46299</v>
+        <v>462266</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>72191</v>
+        <v>488158</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1079115367455602</v>
+        <v>0.8920884632544399</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0866283079857896</v>
+        <v>0.8649255439219981</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1350744560780019</v>
+        <v>0.9133716920142103</v>
       </c>
     </row>
     <row r="21">
@@ -4235,67 +4235,67 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>491</v>
+        <v>105</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>577405</v>
+        <v>139191</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>548573</v>
+        <v>113503</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>603093</v>
+        <v>168023</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8057614411390557</v>
+        <v>0.1942385588609443</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7655260267657762</v>
+        <v>0.1583922490833171</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8416077509166828</v>
+        <v>0.2344739732342236</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>797</v>
+        <v>160</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>625411</v>
+        <v>144488</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>600455</v>
+        <v>125256</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>644643</v>
+        <v>169444</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8123289069052965</v>
+        <v>0.1876710930947035</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7799143421228507</v>
+        <v>0.1626909598578897</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8373090401421102</v>
+        <v>0.2200856578771491</v>
       </c>
       <c r="Q22" s="5" t="n">
-        <v>1288</v>
+        <v>265</v>
       </c>
       <c r="R22" s="5" t="n">
-        <v>1202817</v>
+        <v>283678</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1161730</v>
+        <v>254156</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1232339</v>
+        <v>324765</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8091629226875562</v>
+        <v>0.1908370773124439</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7815228510940716</v>
+        <v>0.1709769933915931</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8290230066084071</v>
+        <v>0.218477148905929</v>
       </c>
     </row>
     <row r="23">
@@ -4306,67 +4306,67 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>105</v>
+        <v>491</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>139191</v>
+        <v>577405</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>113503</v>
+        <v>548573</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>168023</v>
+        <v>603093</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1942385588609443</v>
+        <v>0.8057614411390557</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1583922490833171</v>
+        <v>0.7655260267657762</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2344739732342236</v>
+        <v>0.8416077509166828</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>160</v>
+        <v>797</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>144488</v>
+        <v>625411</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>125256</v>
+        <v>600455</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>169444</v>
+        <v>644643</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1876710930947035</v>
+        <v>0.8123289069052965</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1626909598578897</v>
+        <v>0.7799143421228507</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2200856578771491</v>
+        <v>0.8373090401421102</v>
       </c>
       <c r="Q23" s="5" t="n">
-        <v>265</v>
+        <v>1288</v>
       </c>
       <c r="R23" s="5" t="n">
-        <v>283678</v>
+        <v>1202817</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>254156</v>
+        <v>1161730</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>324765</v>
+        <v>1232339</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.1908370773124439</v>
+        <v>0.8091629226875562</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1709769933915931</v>
+        <v>0.7815228510940716</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.218477148905929</v>
+        <v>0.8290230066084071</v>
       </c>
     </row>
     <row r="24">
@@ -4452,67 +4452,67 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>298</v>
+        <v>463</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>303518</v>
+        <v>493355</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>277407</v>
+        <v>463167</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>333706</v>
+        <v>519466</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3808858006661132</v>
+        <v>0.619114199333887</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3481198236458163</v>
+        <v>0.581231135714163</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4187688642858369</v>
+        <v>0.6518801763541836</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>391555</v>
+        <v>438379</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>365445</v>
+        <v>414725</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>415209</v>
+        <v>464489</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4717900876531076</v>
+        <v>0.5282099123468923</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4403305089321536</v>
+        <v>0.4997087249076819</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5002912750923182</v>
+        <v>0.5596694910678465</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>805</v>
+        <v>1016</v>
       </c>
       <c r="R25" s="5" t="n">
-        <v>695072</v>
+        <v>931735</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>654573</v>
+        <v>891418</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>735389</v>
+        <v>972234</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4272616427255709</v>
+        <v>0.5727383572744291</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4023668814840501</v>
+        <v>0.5479555722123428</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4520444277876573</v>
+        <v>0.59763311851595</v>
       </c>
     </row>
     <row r="26">
@@ -4523,67 +4523,67 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>463</v>
+        <v>298</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>493355</v>
+        <v>303518</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>463167</v>
+        <v>277407</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>519466</v>
+        <v>333706</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.619114199333887</v>
+        <v>0.3808858006661132</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.581231135714163</v>
+        <v>0.3481198236458163</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6518801763541836</v>
+        <v>0.4187688642858369</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>438379</v>
+        <v>391555</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>414725</v>
+        <v>365445</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>464489</v>
+        <v>415209</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5282099123468923</v>
+        <v>0.4717900876531076</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4997087249076819</v>
+        <v>0.4403305089321536</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5596694910678465</v>
+        <v>0.5002912750923182</v>
       </c>
       <c r="Q26" s="5" t="n">
-        <v>1016</v>
+        <v>805</v>
       </c>
       <c r="R26" s="5" t="n">
-        <v>931735</v>
+        <v>695072</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>891418</v>
+        <v>654573</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>972234</v>
+        <v>735389</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5727383572744291</v>
+        <v>0.4272616427255709</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5479555722123428</v>
+        <v>0.4023668814840501</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.59763311851595</v>
+        <v>0.4520444277876573</v>
       </c>
     </row>
     <row r="27">
@@ -4669,67 +4669,67 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>2471</v>
+        <v>900</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>2521004</v>
+        <v>1006603</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2457542</v>
+        <v>946519</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2581088</v>
+        <v>1070065</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7146499039022403</v>
+        <v>0.2853500960977597</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6966597060309331</v>
+        <v>0.2683177184577972</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7316822815422028</v>
+        <v>0.3033402939690669</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>4244</v>
+        <v>1109</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2844420</v>
+        <v>883558</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2796444</v>
+        <v>833786</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2894192</v>
+        <v>931534</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7629927594309129</v>
+        <v>0.2370072405690868</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7501236290674956</v>
+        <v>0.2236564150196443</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7763435849803556</v>
+        <v>0.2498763709325044</v>
       </c>
       <c r="Q28" s="5" t="n">
-        <v>6715</v>
+        <v>2009</v>
       </c>
       <c r="R28" s="5" t="n">
-        <v>5365424</v>
+        <v>1890161</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5287182</v>
+        <v>1813076</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5442509</v>
+        <v>1968403</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7394888494351726</v>
+        <v>0.2605111505648273</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7287051586462991</v>
+        <v>0.2498869857498086</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7501130142501912</v>
+        <v>0.2712948413537006</v>
       </c>
     </row>
     <row r="29">
@@ -4740,67 +4740,67 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>900</v>
+        <v>2471</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1006603</v>
+        <v>2521004</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>946519</v>
+        <v>2457542</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1070065</v>
+        <v>2581088</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2853500960977597</v>
+        <v>0.7146499039022403</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2683177184577972</v>
+        <v>0.6966597060309331</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3033402939690669</v>
+        <v>0.7316822815422028</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1109</v>
+        <v>4244</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>883558</v>
+        <v>2844420</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>833786</v>
+        <v>2796444</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>931534</v>
+        <v>2894192</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2370072405690868</v>
+        <v>0.7629927594309129</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2236564150196443</v>
+        <v>0.7501236290674956</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2498763709325044</v>
+        <v>0.7763435849803556</v>
       </c>
       <c r="Q29" s="5" t="n">
-        <v>2009</v>
+        <v>6715</v>
       </c>
       <c r="R29" s="5" t="n">
-        <v>1890161</v>
+        <v>5365424</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1813076</v>
+        <v>5287182</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1968403</v>
+        <v>5442509</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2605111505648273</v>
+        <v>0.7394888494351726</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2498869857498086</v>
+        <v>0.7287051586462991</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2712948413537006</v>
+        <v>0.7501130142501912</v>
       </c>
     </row>
     <row r="30">

--- a/data/trans_orig/P36BPD07_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_R-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>47158</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34799</v>
+        <v>33939</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61344</v>
+        <v>60831</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1605304311409348</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1184587896655663</v>
+        <v>0.1155332456177855</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2088237013397542</v>
+        <v>0.2070750032949564</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -763,19 +763,19 @@
         <v>39644</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29299</v>
+        <v>28880</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51347</v>
+        <v>52246</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1373168788022287</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1014838739335189</v>
+        <v>0.100032755495493</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1778547242941325</v>
+        <v>0.1809692217185246</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -784,19 +784,19 @@
         <v>86801</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68688</v>
+        <v>70701</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106179</v>
+        <v>105069</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1490244458961727</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1179259444387368</v>
+        <v>0.121382393339755</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1822921980448527</v>
+        <v>0.1803879695199349</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>246603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232417</v>
+        <v>232930</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>258962</v>
+        <v>259822</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8394695688590652</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7911762986602459</v>
+        <v>0.7929249967050436</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8815412103344337</v>
+        <v>0.8844667543822146</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>238</v>
@@ -834,19 +834,19 @@
         <v>249059</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>237356</v>
+        <v>236457</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>259404</v>
+        <v>259823</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8626831211977712</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8221452757058675</v>
+        <v>0.8190307782814753</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8985161260664809</v>
+        <v>0.8999672445045069</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>463</v>
@@ -855,19 +855,19 @@
         <v>495663</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>476285</v>
+        <v>477395</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>513776</v>
+        <v>511763</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8509755541038273</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8177078019551473</v>
+        <v>0.8196120304800651</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8820740555612633</v>
+        <v>0.878617606660245</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>81176</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66399</v>
+        <v>64799</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99709</v>
+        <v>98837</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.161519559086874</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1321183405726789</v>
+        <v>0.1289332167412619</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1983958283265229</v>
+        <v>0.1966620476134362</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -980,19 +980,19 @@
         <v>61405</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48309</v>
+        <v>47437</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78306</v>
+        <v>77709</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1179570248711909</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0928008737885241</v>
+        <v>0.09112565976862599</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1504244751851574</v>
+        <v>0.1492772196242559</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>135</v>
@@ -1001,19 +1001,19 @@
         <v>142580</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>121659</v>
+        <v>122373</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>165754</v>
+        <v>167766</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1393552498132365</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1189065347222049</v>
+        <v>0.1196045638096484</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1620042299002014</v>
+        <v>0.1639707479806854</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>421399</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>402866</v>
+        <v>403738</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>436176</v>
+        <v>437776</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.838480440913126</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8016041716734771</v>
+        <v>0.8033379523865636</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8678816594273211</v>
+        <v>0.871066783258738</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>423</v>
@@ -1051,19 +1051,19 @@
         <v>459163</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>442262</v>
+        <v>442859</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>472259</v>
+        <v>473131</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.882042975128809</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8495755248148424</v>
+        <v>0.8507227803757441</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9071991262114758</v>
+        <v>0.9088743402313739</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>822</v>
@@ -1072,19 +1072,19 @@
         <v>880564</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>857390</v>
+        <v>855378</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>901485</v>
+        <v>900771</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8606447501867635</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8379957700997985</v>
+        <v>0.8360292520193141</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.881093465277795</v>
+        <v>0.8803954361903513</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>13198</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7427</v>
+        <v>7466</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21430</v>
+        <v>21875</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04203715066821461</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02365661706835542</v>
+        <v>0.02377910032268141</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06825707430845539</v>
+        <v>0.06967596292549072</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1197,19 +1197,19 @@
         <v>5803</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1993</v>
+        <v>1983</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12392</v>
+        <v>11630</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01725525471634732</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005925074507870304</v>
+        <v>0.005894924858948608</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03684732823564084</v>
+        <v>0.03458154933278217</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1218,19 +1218,19 @@
         <v>19001</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12344</v>
+        <v>11727</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28551</v>
+        <v>28257</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02922025039923405</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01898230203823215</v>
+        <v>0.01803482258003393</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04390631569245141</v>
+        <v>0.04345435949573008</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>300757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>292525</v>
+        <v>292080</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>306528</v>
+        <v>306489</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9579628493317854</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9317429256915447</v>
+        <v>0.9303240370745093</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9763433829316446</v>
+        <v>0.9762208996773186</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>326</v>
@@ -1268,19 +1268,19 @@
         <v>330506</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>323917</v>
+        <v>324679</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334316</v>
+        <v>334326</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9827447452836526</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9631526717643591</v>
+        <v>0.9654184506672174</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9940749254921297</v>
+        <v>0.9941050751410514</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>642</v>
@@ -1289,19 +1289,19 @@
         <v>631263</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>621713</v>
+        <v>622007</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>637920</v>
+        <v>638537</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.970779749600766</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9560936843075487</v>
+        <v>0.9565456405042699</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9810176979617679</v>
+        <v>0.9819651774199661</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>78496</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63275</v>
+        <v>63022</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94926</v>
+        <v>95699</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.212173006650493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1710300046318554</v>
+        <v>0.1703461551597856</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2565817008156382</v>
+        <v>0.2586703822779098</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1414,19 +1414,19 @@
         <v>61492</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48350</v>
+        <v>48767</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76511</v>
+        <v>76529</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1601596002846863</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1259312713488877</v>
+        <v>0.1270157033223639</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.199278341943859</v>
+        <v>0.1993242636793394</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>136</v>
@@ -1435,19 +1435,19 @@
         <v>139988</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121155</v>
+        <v>119093</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>163659</v>
+        <v>163102</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1856841411591071</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1607036552702829</v>
+        <v>0.1579686328138978</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2170817421253437</v>
+        <v>0.2163429001884644</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>291468</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>275038</v>
+        <v>274265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>306689</v>
+        <v>306942</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.787826993349507</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7434182991843619</v>
+        <v>0.7413296177220902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8289699953681445</v>
+        <v>0.8296538448402144</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>296</v>
@@ -1485,19 +1485,19 @@
         <v>322449</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>307430</v>
+        <v>307412</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>335591</v>
+        <v>335174</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8398403997153137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8007216580561409</v>
+        <v>0.8006757363206607</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8740687286511124</v>
+        <v>0.8729842966776361</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>574</v>
@@ -1506,19 +1506,19 @@
         <v>613917</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>590246</v>
+        <v>590803</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>632750</v>
+        <v>634812</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.814315858840893</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7829182578746563</v>
+        <v>0.7836570998115355</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.839296344729717</v>
+        <v>0.8420313671861023</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>39592</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29057</v>
+        <v>29348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52769</v>
+        <v>51964</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1874452069785333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.137567960147243</v>
+        <v>0.1389435911855895</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2498271815671151</v>
+        <v>0.2460160360913796</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -1631,19 +1631,19 @@
         <v>30216</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21065</v>
+        <v>21690</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41622</v>
+        <v>41315</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1382312715939819</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09637001090674124</v>
+        <v>0.09922715817598719</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1904132480654729</v>
+        <v>0.1890079867752462</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>69</v>
@@ -1652,19 +1652,19 @@
         <v>69808</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>55667</v>
+        <v>55177</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85575</v>
+        <v>85788</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1624165278067089</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1295168296228351</v>
+        <v>0.1283759573884802</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1991002588787651</v>
+        <v>0.199595595302475</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>171629</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>158452</v>
+        <v>159257</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>182164</v>
+        <v>181873</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8125547930214667</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7501728184328849</v>
+        <v>0.7539839639086203</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.862432039852757</v>
+        <v>0.8610564088144104</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>192</v>
@@ -1702,19 +1702,19 @@
         <v>188371</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176965</v>
+        <v>177272</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>197522</v>
+        <v>196897</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8617687284060181</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8095867519345271</v>
+        <v>0.8109920132247529</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9036299890932588</v>
+        <v>0.9007728418240128</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>366</v>
@@ -1723,19 +1723,19 @@
         <v>360000</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>344233</v>
+        <v>344020</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>374141</v>
+        <v>374631</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8375834721932911</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8008997411212347</v>
+        <v>0.8004044046975249</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8704831703771647</v>
+        <v>0.8716240426115197</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>34849</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24645</v>
+        <v>24701</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47034</v>
+        <v>45539</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1324430076271336</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09366516047184081</v>
+        <v>0.09387506858694041</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1787510502881468</v>
+        <v>0.1730699055799339</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -1848,19 +1848,19 @@
         <v>24010</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16307</v>
+        <v>15656</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34312</v>
+        <v>33945</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08791247637555179</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05970561860314862</v>
+        <v>0.05732401836581049</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1256329181792958</v>
+        <v>0.1242869858672905</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>60</v>
@@ -1869,19 +1869,19 @@
         <v>58859</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44816</v>
+        <v>45903</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73675</v>
+        <v>73531</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.109762861738803</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08357533755835692</v>
+        <v>0.08560212707701083</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1373916706955138</v>
+        <v>0.1371235563130024</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>228274</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>216089</v>
+        <v>217584</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>238478</v>
+        <v>238422</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8675569923728664</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8212489497118534</v>
+        <v>0.8269300944200662</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9063348395281592</v>
+        <v>0.9061249314130595</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>238</v>
@@ -1919,19 +1919,19 @@
         <v>249105</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>238803</v>
+        <v>239170</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256808</v>
+        <v>257459</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9120875236244482</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8743670818207041</v>
+        <v>0.875713014132709</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9402943813968513</v>
+        <v>0.9426759816341893</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>462</v>
@@ -1940,19 +1940,19 @@
         <v>477379</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>462563</v>
+        <v>462707</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>491422</v>
+        <v>490335</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.890237138261197</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8626083293044865</v>
+        <v>0.862876443686998</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9164246624416432</v>
+        <v>0.9143978729229892</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>93399</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>76876</v>
+        <v>75837</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>113263</v>
+        <v>111501</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1452927178637283</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1195884948896429</v>
+        <v>0.1179727618719991</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1761922010809841</v>
+        <v>0.1734526793767776</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>121</v>
@@ -2065,19 +2065,19 @@
         <v>122506</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>105511</v>
+        <v>104093</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>145724</v>
+        <v>142033</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1812606286324054</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1561151267913923</v>
+        <v>0.1540165234284024</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2156146040947134</v>
+        <v>0.2101536325212499</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>205</v>
@@ -2086,19 +2086,19 @@
         <v>215905</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>186254</v>
+        <v>189346</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>241390</v>
+        <v>244504</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.163726969640569</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1412420963427919</v>
+        <v>0.1435867137216274</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1830528877804972</v>
+        <v>0.1854144848145379</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>549436</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>529572</v>
+        <v>531334</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>565959</v>
+        <v>566998</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8547072821362717</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8238077989190159</v>
+        <v>0.8265473206232224</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8804115051103572</v>
+        <v>0.8820272381280009</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>512</v>
@@ -2136,19 +2136,19 @@
         <v>553347</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>530129</v>
+        <v>533820</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>570342</v>
+        <v>571760</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8187393713675947</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7843853959052872</v>
+        <v>0.7898463674787501</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8438848732086078</v>
+        <v>0.8459834765715981</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>996</v>
@@ -2157,19 +2157,19 @@
         <v>1102783</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1077298</v>
+        <v>1074184</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1132434</v>
+        <v>1129342</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.836273030359431</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8169471122195028</v>
+        <v>0.814585515185462</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8587579036572081</v>
+        <v>0.8564132862783725</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>138432</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>118212</v>
+        <v>114535</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>163080</v>
+        <v>159157</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1789285446416754</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1527932670101311</v>
+        <v>0.1480410817396587</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2107868805556688</v>
+        <v>0.2057167357014527</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>119</v>
@@ -2282,19 +2282,19 @@
         <v>122315</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>101846</v>
+        <v>101611</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>144738</v>
+        <v>144094</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1482263744796623</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1234212489897828</v>
+        <v>0.1231363227995963</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1753993491912861</v>
+        <v>0.1746191520447891</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>252</v>
@@ -2303,19 +2303,19 @@
         <v>260747</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>232742</v>
+        <v>229489</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>291620</v>
+        <v>289285</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1630828073071345</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1455675825665619</v>
+        <v>0.1435327715436863</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1823919674493112</v>
+        <v>0.1809316240842554</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>635239</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>610591</v>
+        <v>614514</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>655459</v>
+        <v>659136</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8210714553583246</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7892131194443311</v>
+        <v>0.7942832642985472</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8472067329898689</v>
+        <v>0.8519589182603412</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>635</v>
@@ -2353,19 +2353,19 @@
         <v>702876</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>680453</v>
+        <v>681097</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>723345</v>
+        <v>723580</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8517736255203376</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8246006508087139</v>
+        <v>0.8253808479552108</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8765787510102172</v>
+        <v>0.8768636772004037</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1247</v>
@@ -2374,19 +2374,19 @@
         <v>1338115</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1307242</v>
+        <v>1309577</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1366120</v>
+        <v>1369373</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8369171926928655</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8176080325506887</v>
+        <v>0.8190683759157446</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8544324174334373</v>
+        <v>0.8564672284563137</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>526300</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>486108</v>
+        <v>489415</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>572971</v>
+        <v>572535</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1561208002276531</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1441984319328135</v>
+        <v>0.1451792420774556</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1699652612304881</v>
+        <v>0.1698358363039179</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>460</v>
@@ -2499,19 +2499,19 @@
         <v>467390</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>429208</v>
+        <v>428465</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>512031</v>
+        <v>509449</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1326957262605824</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1218555774801523</v>
+        <v>0.1216447320098936</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1453696316259617</v>
+        <v>0.1446367205389713</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>957</v>
@@ -2520,19 +2520,19 @@
         <v>993690</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>932520</v>
+        <v>929128</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1056063</v>
+        <v>1047925</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1441514243933832</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.135277739442386</v>
+        <v>0.1347857076780693</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1531997460952944</v>
+        <v>0.1520191913702149</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>2844806</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2798135</v>
+        <v>2798571</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2884998</v>
+        <v>2881691</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8438791997723469</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8300347387695119</v>
+        <v>0.8301641636960823</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8558015680671867</v>
+        <v>0.8548207579225444</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2860</v>
@@ -2570,19 +2570,19 @@
         <v>3054877</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3010236</v>
+        <v>3012818</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3093059</v>
+        <v>3093802</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8673042737394177</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8546303683740382</v>
+        <v>0.8553632794610287</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8781444225198477</v>
+        <v>0.8783552679901064</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5572</v>
@@ -2591,19 +2591,19 @@
         <v>5899683</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5837310</v>
+        <v>5845448</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5960853</v>
+        <v>5964245</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8558485756066168</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8468002539047055</v>
+        <v>0.8479808086297852</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.864722260557614</v>
+        <v>0.8652142923219308</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>54493</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40664</v>
+        <v>39595</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71872</v>
+        <v>71377</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1709066504169837</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1275345930791149</v>
+        <v>0.1241841552923595</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2254123547265519</v>
+        <v>0.2238624374625979</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -2960,19 +2960,19 @@
         <v>44747</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33706</v>
+        <v>32928</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59531</v>
+        <v>57705</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1415785831697095</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1066439116363026</v>
+        <v>0.1041821063022887</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1883520947372331</v>
+        <v>0.1825742008529872</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -2981,19 +2981,19 @@
         <v>99240</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80239</v>
+        <v>82312</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119895</v>
+        <v>118988</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.156306931876042</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1263790030045674</v>
+        <v>0.129644799759861</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1888388745891913</v>
+        <v>0.1874109487678881</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>264352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>246973</v>
+        <v>247468</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>278181</v>
+        <v>279250</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8290933495830164</v>
+        <v>0.8290933495830165</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7745876452734481</v>
+        <v>0.776137562537402</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8724654069208851</v>
+        <v>0.8758158447076404</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>482</v>
@@ -3031,19 +3031,19 @@
         <v>271314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>256530</v>
+        <v>258356</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282355</v>
+        <v>283133</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8584214168302904</v>
+        <v>0.8584214168302906</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.811647905262767</v>
+        <v>0.8174257991470129</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8933560883636974</v>
+        <v>0.8958178936977111</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>764</v>
@@ -3052,19 +3052,19 @@
         <v>535666</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>515011</v>
+        <v>515918</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>554667</v>
+        <v>552594</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8436930681239582</v>
+        <v>0.8436930681239579</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8111611254108086</v>
+        <v>0.8125890512321118</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8736209969954327</v>
+        <v>0.870355200240139</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>106453</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85018</v>
+        <v>85380</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133977</v>
+        <v>132859</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2006104903541734</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1602153772732618</v>
+        <v>0.1608975828374646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2524787757597275</v>
+        <v>0.2503721960553443</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>127</v>
@@ -3177,19 +3177,19 @@
         <v>101690</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84962</v>
+        <v>83721</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119051</v>
+        <v>120293</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1866021701984724</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1559061561024023</v>
+        <v>0.1536295036325853</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.218461122144786</v>
+        <v>0.2207391189504112</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>198</v>
@@ -3198,19 +3198,19 @@
         <v>208143</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>180989</v>
+        <v>179689</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>241590</v>
+        <v>235550</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1935131599260557</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1682677443451743</v>
+        <v>0.1670590151661571</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2246088730177027</v>
+        <v>0.2189933263603202</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>424194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>396670</v>
+        <v>397788</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>445629</v>
+        <v>445267</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7993895096458267</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7475212242402717</v>
+        <v>0.7496278039446554</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8397846227267384</v>
+        <v>0.8391024171625353</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>588</v>
@@ -3248,19 +3248,19 @@
         <v>443265</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>425904</v>
+        <v>424662</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>459993</v>
+        <v>461234</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8133978298015275</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7815388778552137</v>
+        <v>0.7792608810495885</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8440938438975978</v>
+        <v>0.8463704963674137</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>899</v>
@@ -3269,19 +3269,19 @@
         <v>867459</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>834012</v>
+        <v>840052</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>894613</v>
+        <v>895913</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8064868400739442</v>
+        <v>0.8064868400739443</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7753911269822974</v>
+        <v>0.7810066736396799</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8317322556548256</v>
+        <v>0.8329409848338437</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>62092</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49472</v>
+        <v>48975</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77787</v>
+        <v>78340</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1970380653155904</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1569891805490465</v>
+        <v>0.1554111970336588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2468416216137335</v>
+        <v>0.2485977143403517</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -3394,19 +3394,19 @@
         <v>41772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31642</v>
+        <v>32240</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52080</v>
+        <v>53030</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1174374934627747</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08895768285753812</v>
+        <v>0.09063880055214803</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1464149671193202</v>
+        <v>0.1490860990264102</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>124</v>
@@ -3415,19 +3415,19 @@
         <v>103865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87585</v>
+        <v>86730</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124773</v>
+        <v>122561</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1548307517002118</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1305629049261417</v>
+        <v>0.1292881764476153</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1859983616572421</v>
+        <v>0.1827009179268245</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>253037</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>237342</v>
+        <v>236789</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>265657</v>
+        <v>266154</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8029619346844096</v>
+        <v>0.8029619346844097</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7531583783862664</v>
+        <v>0.7514022856596485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8430108194509536</v>
+        <v>0.8445888029663412</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>474</v>
@@ -3465,19 +3465,19 @@
         <v>313927</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>303619</v>
+        <v>302669</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>324057</v>
+        <v>323459</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8825625065372255</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.85358503288068</v>
+        <v>0.8509139009735903</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9110423171424618</v>
+        <v>0.9093611994478522</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>770</v>
@@ -3486,19 +3486,19 @@
         <v>566962</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>546054</v>
+        <v>548266</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>583242</v>
+        <v>584097</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8451692482997882</v>
+        <v>0.8451692482997883</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.814001638342758</v>
+        <v>0.8172990820731754</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8694370950738579</v>
+        <v>0.870711823552384</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>63821</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46464</v>
+        <v>46924</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90380</v>
+        <v>85290</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1710343626951719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1245203335480586</v>
+        <v>0.1257532316496122</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2422113205520873</v>
+        <v>0.228571059721795</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -3611,19 +3611,19 @@
         <v>64315</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50480</v>
+        <v>50228</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82356</v>
+        <v>82983</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1528192175549671</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1199461384351705</v>
+        <v>0.1193479663034911</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1956868572802938</v>
+        <v>0.1971757264154881</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -3632,19 +3632,19 @@
         <v>128136</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106041</v>
+        <v>102731</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>159064</v>
+        <v>155141</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1613795193183027</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1335522771649526</v>
+        <v>0.1293843764763865</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2003322693911497</v>
+        <v>0.1953909389848504</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>309324</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>282765</v>
+        <v>287855</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>326681</v>
+        <v>326221</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8289656373048281</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7577886794479127</v>
+        <v>0.7714289402782051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8754796664519414</v>
+        <v>0.8742467683503878</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>533</v>
@@ -3682,19 +3682,19 @@
         <v>356542</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>338501</v>
+        <v>337874</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>370377</v>
+        <v>370629</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8471807824450327</v>
+        <v>0.847180782445033</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8043131427197062</v>
+        <v>0.802824273584512</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8800538615648293</v>
+        <v>0.880652033696509</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>783</v>
@@ -3703,19 +3703,19 @@
         <v>665866</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>634938</v>
+        <v>638861</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>687961</v>
+        <v>691271</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.838620480681697</v>
+        <v>0.8386204806816974</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7996677306088502</v>
+        <v>0.8046090610151495</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8664477228350478</v>
+        <v>0.8706156235236135</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>48607</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38146</v>
+        <v>37916</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60499</v>
+        <v>61114</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2363415329822989</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1854783685649524</v>
+        <v>0.1843580113780026</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2941635441838432</v>
+        <v>0.2971539438487811</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -3828,19 +3828,19 @@
         <v>29083</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22299</v>
+        <v>22513</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38200</v>
+        <v>38096</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1282174087953409</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0983093342469782</v>
+        <v>0.09925476872773006</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1684117721710305</v>
+        <v>0.1679565964192535</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>118</v>
@@ -3849,19 +3849,19 @@
         <v>77690</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65561</v>
+        <v>64740</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>92303</v>
+        <v>92353</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1796345937723191</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1515901233740616</v>
+        <v>0.1496909946165326</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2134234769395373</v>
+        <v>0.2135385484640595</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>157058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>145166</v>
+        <v>144551</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>167519</v>
+        <v>167749</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7636584670177009</v>
+        <v>0.7636584670177011</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7058364558161567</v>
+        <v>0.7028460561512189</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8145216314350475</v>
+        <v>0.8156419886219973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>433</v>
@@ -3899,19 +3899,19 @@
         <v>197740</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188623</v>
+        <v>188727</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>204524</v>
+        <v>204310</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8717825912046592</v>
+        <v>0.8717825912046591</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8315882278289695</v>
+        <v>0.8320434035807464</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9016906657530217</v>
+        <v>0.90074523127227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>652</v>
@@ -3920,19 +3920,19 @@
         <v>354798</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>340185</v>
+        <v>340135</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>366927</v>
+        <v>367748</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8203654062276808</v>
+        <v>0.8203654062276807</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7865765230604634</v>
+        <v>0.7864614515359405</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8484098766259383</v>
+        <v>0.8503090053834673</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>38591</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28895</v>
+        <v>29457</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50610</v>
+        <v>51029</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1425554453112586</v>
+        <v>0.1425554453112587</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1067374263396174</v>
+        <v>0.1088158004548014</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1869532943484073</v>
+        <v>0.1885026039536096</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -4045,19 +4045,19 @@
         <v>19083</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12951</v>
+        <v>13117</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26061</v>
+        <v>28219</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07235385917907236</v>
+        <v>0.07235385917907235</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04910173602078613</v>
+        <v>0.04973220132561058</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09881110902443239</v>
+        <v>0.106990768834624</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -4066,19 +4066,19 @@
         <v>57674</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46299</v>
+        <v>45717</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72191</v>
+        <v>71143</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1079115367455602</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0866283079857896</v>
+        <v>0.08553971287280797</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1350744560780019</v>
+        <v>0.133112380414255</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>232116</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>220097</v>
+        <v>219678</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>241812</v>
+        <v>241250</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8574445546887415</v>
+        <v>0.8574445546887414</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.813046705651593</v>
+        <v>0.811497396046391</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8932625736603829</v>
+        <v>0.8911841995451992</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>430</v>
@@ -4116,19 +4116,19 @@
         <v>244667</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>237689</v>
+        <v>235531</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>250799</v>
+        <v>250633</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9276461408209278</v>
+        <v>0.9276461408209276</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9011888909755676</v>
+        <v>0.893009231165376</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.950898263979214</v>
+        <v>0.9502677986743895</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>754</v>
@@ -4137,19 +4137,19 @@
         <v>476783</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>462266</v>
+        <v>463314</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>488158</v>
+        <v>488740</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8920884632544399</v>
+        <v>0.8920884632544398</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8649255439219981</v>
+        <v>0.866887619585745</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9133716920142103</v>
+        <v>0.9144602871271921</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>139191</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>113503</v>
+        <v>115835</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>168023</v>
+        <v>167243</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1942385588609443</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1583922490833171</v>
+        <v>0.161646793650456</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2344739732342236</v>
+        <v>0.2333851225988037</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>160</v>
@@ -4262,19 +4262,19 @@
         <v>144488</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>125256</v>
+        <v>123080</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>169444</v>
+        <v>167284</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1876710930947035</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1626909598578897</v>
+        <v>0.1598654259463524</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2200856578771491</v>
+        <v>0.2172808365770109</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>265</v>
@@ -4283,19 +4283,19 @@
         <v>283678</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>254156</v>
+        <v>250504</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>324765</v>
+        <v>318780</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1908370773124439</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1709769933915931</v>
+        <v>0.1685201634604766</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.218477148905929</v>
+        <v>0.2144509627338876</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>577405</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>548573</v>
+        <v>549353</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>603093</v>
+        <v>600761</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8057614411390557</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7655260267657762</v>
+        <v>0.7666148774011963</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8416077509166828</v>
+        <v>0.8383532063495439</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>797</v>
@@ -4333,19 +4333,19 @@
         <v>625411</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>600455</v>
+        <v>602615</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>644643</v>
+        <v>646819</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8123289069052965</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7799143421228507</v>
+        <v>0.7827191634229892</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8373090401421102</v>
+        <v>0.8401345740536476</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1288</v>
@@ -4354,19 +4354,19 @@
         <v>1202817</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1161730</v>
+        <v>1167715</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1232339</v>
+        <v>1235991</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8091629226875562</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7815228510940716</v>
+        <v>0.7855490372661126</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8290230066084071</v>
+        <v>0.8314798365395234</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>493355</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>463167</v>
+        <v>463512</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>519466</v>
+        <v>521715</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.619114199333887</v>
+        <v>0.6191141993338869</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.581231135714163</v>
+        <v>0.5816633365934016</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6518801763541836</v>
+        <v>0.6547023676976792</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>553</v>
@@ -4479,19 +4479,19 @@
         <v>438379</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>414725</v>
+        <v>411999</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>464489</v>
+        <v>464287</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5282099123468923</v>
+        <v>0.5282099123468924</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4997087249076819</v>
+        <v>0.4964237241142272</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5596694910678465</v>
+        <v>0.5594267115593381</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1016</v>
@@ -4500,19 +4500,19 @@
         <v>931735</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>891418</v>
+        <v>889995</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>972234</v>
+        <v>971560</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5727383572744291</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5479555722123428</v>
+        <v>0.5470810765788998</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.59763311851595</v>
+        <v>0.5972187991483512</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>303518</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>277407</v>
+        <v>275158</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>333706</v>
+        <v>333361</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3808858006661132</v>
+        <v>0.3808858006661131</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3481198236458163</v>
+        <v>0.3452976323023208</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4187688642858369</v>
+        <v>0.4183366634065984</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>507</v>
@@ -4550,19 +4550,19 @@
         <v>391555</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>365445</v>
+        <v>365647</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>415209</v>
+        <v>417935</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4717900876531076</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4403305089321536</v>
+        <v>0.4405732884406618</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5002912750923182</v>
+        <v>0.5035762758857726</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>805</v>
@@ -4571,19 +4571,19 @@
         <v>695072</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>654573</v>
+        <v>655247</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>735389</v>
+        <v>736812</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4272616427255709</v>
+        <v>0.4272616427255708</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4023668814840501</v>
+        <v>0.4027812008516489</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4520444277876573</v>
+        <v>0.4529189234211002</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>1006603</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>946519</v>
+        <v>947048</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1070065</v>
+        <v>1070587</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2853500960977597</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2683177184577972</v>
+        <v>0.2684676746591798</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3033402939690669</v>
+        <v>0.3034880772338439</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1109</v>
@@ -4696,19 +4696,19 @@
         <v>883558</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>833786</v>
+        <v>834587</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>931534</v>
+        <v>936029</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2370072405690868</v>
+        <v>0.2370072405690869</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2236564150196443</v>
+        <v>0.223871296456766</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2498763709325044</v>
+        <v>0.2510821639430623</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2009</v>
@@ -4717,19 +4717,19 @@
         <v>1890161</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1813076</v>
+        <v>1816199</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1968403</v>
+        <v>1968221</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2605111505648273</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2498869857498086</v>
+        <v>0.2503173368161992</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2712948413537006</v>
+        <v>0.2712698007998406</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>2521004</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2457542</v>
+        <v>2457020</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2581088</v>
+        <v>2580559</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.7146499039022403</v>
+        <v>0.7146499039022404</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6966597060309331</v>
+        <v>0.6965119227661558</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7316822815422028</v>
+        <v>0.7315323253408202</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4244</v>
@@ -4767,19 +4767,19 @@
         <v>2844420</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2796444</v>
+        <v>2791949</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2894192</v>
+        <v>2893391</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7629927594309129</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7501236290674956</v>
+        <v>0.7489178360569376</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7763435849803556</v>
+        <v>0.776128703543234</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6715</v>
@@ -4788,19 +4788,19 @@
         <v>5365424</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5287182</v>
+        <v>5287364</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5442509</v>
+        <v>5439386</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7394888494351726</v>
+        <v>0.7394888494351727</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7287051586462991</v>
+        <v>0.7287301992001592</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7501130142501912</v>
+        <v>0.7496826631838003</v>
       </c>
     </row>
     <row r="30">
